--- a/biology/Zoologie/Bettongia_gaimardi/Bettongia_gaimardi.xlsx
+++ b/biology/Zoologie/Bettongia_gaimardi/Bettongia_gaimardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bettongie de Tasmanie ou bettong de Tasmanie[réf. nécessaire] (Bettongia gaimardi) est un petit marsupial originaire du sud-est du continent australien et de l'est de la Tasmanie[1]. Il a disparu du continent australien dans les années 1890 par suite de l'introduction du renard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bettongie de Tasmanie ou bettong de Tasmanie[réf. nécessaire] (Bettongia gaimardi) est un petit marsupial originaire du sud-est du continent australien et de l'est de la Tasmanie. Il a disparu du continent australien dans les années 1890 par suite de l'introduction du renard.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Alimentation et mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal nocturne. Il se nourrit essentiellement de champignons souterrains apparentés aux truffes, mais il n'hésite pas aussi à déterrer des racines ou des tubercules. Il mange aussi des insectes et des larves.
-Il peut parcourir 1,5 km depuis son nid jusqu'au lieu où il trouve sa nourriture[2].
-Il habite les bois d'eucalyptus entre le niveau de la mer et 1 000 m. Il aménage un nid bien camouflé fait de feuilles et d'herbes qu'il transporte à l'aide de sa queue préhensile[2].
+Il peut parcourir 1,5 km depuis son nid jusqu'au lieu où il trouve sa nourriture.
+Il habite les bois d'eucalyptus entre le niveau de la mer et 1 000 m. Il aménage un nid bien camouflé fait de feuilles et d'herbes qu'il transporte à l'aide de sa queue préhensile.
 Un individu adulte pèse 2 kg.
-Comme chez les autres bettongies, la reproduction a lieu toute l'année. La gestation dure trois semaines[3].
+Comme chez les autres bettongies, la reproduction a lieu toute l'année. La gestation dure trois semaines.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que la population continentale a disparu et que l'on croyait la population tasmanienne sécurisée[pas clair], l'introduction du renard (illégale mais volontaire) dans l'île en 2004 risque de conduire à la disparition de l'espèce.[réf. souhaitée]
 </t>
